--- a/biology/Botanique/Echium_sabulicola/Echium_sabulicola.xlsx
+++ b/biology/Botanique/Echium_sabulicola/Echium_sabulicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Vipérine maritime (Echium sabulicola) est une plante herbacée du genre Echium et de la famille des Boraginacées. Elle est hérissées de poils, les vipérines doivent leur nom à des fleurs rappelant une gueule de vipère.
-La floraison a lieu de mars à août[1].
+La floraison a lieu de mars à août.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Echium pustulatum var. paniculatum Pau &amp; Font Quer[2]
-Echium sabulicola var. gussonei Klotz[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Echium pustulatum var. paniculatum Pau &amp; Font Quer
+Echium sabulicola var. gussonei Klotz</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (4 août 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (4 août 2022) :
 Echium sabulicola subsp. decipiens (Pomel) Klotz
 Echium sabulicola subsp. rifeum (Pau) Valdés
 Echium sabulicola subsp. sabulicola</t>
